--- a/Intermediate/HtmlToExcel/result.xlsx
+++ b/Intermediate/HtmlToExcel/result.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339235A3-10FE-4506-8AC5-AC1A708B5E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="30810" yWindow="0" windowWidth="21105" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t/>
+  </si>
   <si>
     <r>
       <rPr>
@@ -56,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +86,42 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,8 +136,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -116,6 +155,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -124,20 +175,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -184,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +263,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +315,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,36 +508,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7D44E-B27A-4FA4-876B-8D3292A078FF}">
+  <dimension ref="B3:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="66.75" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="2:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -462,10 +548,10 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -475,24 +561,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CDC8DC-2560-4E49-9D52-B1682BDDB54D}">
+  <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD569A5-52CA-47CD-A82F-B16C97517555}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
